--- a/Excel/edit_menu_clip_boundaries.xlsx
+++ b/Excel/edit_menu_clip_boundaries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -82,64 +82,64 @@
     <t>&lt;  Back to: Edit Menu</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: क्लिप सीमा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा: क्लिप सीमा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>क्लिप सीमांवर कॅस्केडिंग संपादन मेनूमधील आयटम आपल्याला ऑडिओ ट्रॅकमध्ये स्वतंत्र क्लिप तयार करू किंवा काढू देतात.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
     <t>मॅक वापरकर्ते: Ctrl = ⌘ आणि Alt = पर्याय. तर, उदाहरणार्थ, Ctrl + Alt + J = ⌘ + पर्याय + J</t>
   </si>
   <si>
-    <t>स्प्लिट Ctrl + I</t>
-  </si>
-  <si>
-    <t>सध्याच्या क्लिपला निवड सीमेवर तीन क्लिपमध्ये विभाजित करते.</t>
-  </si>
-  <si>
-    <t>निवडीपूर्वी, आत आणि त्यानंतर ऑडिओ आता सर्व स्वतंत्रपणे हलविले जाऊ शकतात</t>
-  </si>
-  <si>
-    <t>नवीन Ctrl + Alt + I विभाजित करा</t>
-  </si>
-  <si>
     <t>अतिरिक्त</t>
   </si>
   <si>
-    <t>वर्तमान ट्रॅकमधील वर्तमान निवडीवर स्प्लिट कट करते, नंतर एक नवीन ट्रॅक तयार करते आणि नवीन ट्रॅकमध्ये निवड पेस्ट करते.</t>
-  </si>
-  <si>
-    <t>Ctrl + J मध्ये सामील व्हा</t>
-  </si>
-  <si>
-    <t>आपण एक किंवा अधिक क्लिप आच्छादित क्षेत्र निवडल्यास, ते सर्व एका मोठ्या क्लिपमध्ये सामील झाले आहेत.</t>
-  </si>
-  <si>
-    <t>दरम्यानचे क्षेत्र क्लिप्स शांत होतात.</t>
-  </si>
-  <si>
-    <t>सायलेन्स सीटीआरएल + अल्ट + जे येथे वेगळा</t>
-  </si>
-  <si>
-    <t>परिपूर्ण शांतता आणि अन्य ऑडिओ समाविष्ट असलेल्या निवड प्रदेशात, शांततेच्या प्रदेशांदरम्यान वैयक्तिक मूक-क्लिप तयार करते. निवड मधील शांतता क्लिप दरम्यान रिक्त जागा होते.</t>
-  </si>
-  <si>
-    <t>जर निवड संपूर्णपणे शांत असेल तर ते निवडीच्या दोन्ही बाजूंच्या ऑडिओ दरम्यान रिक्त स्थान होते.</t>
-  </si>
-  <si>
     <t>&lt;परत: संपादन मेनू</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>संपादन मेनू : फीत सीमा</t>
+  </si>
+  <si>
+    <t>संपादन मेनू : फीत सीमा - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>फीत सीमांवर कॅस्केडिंग संपादन मेनूमधील घटक आपल्याला ध्वनिपट्टामध्ये स्वतंत्र फीत तयार करू किंवा काढू देतात.</t>
+  </si>
+  <si>
+    <t>विभाजन Ctrl + I</t>
+  </si>
+  <si>
+    <t>सध्याच्या फितीला निवड सीमेवर तीन फितमध्ये विभाजित करते.</t>
+  </si>
+  <si>
+    <t>निवडीपूर्वी, आत आणि त्यानंतर ध्वनी आता सर्व स्वतंत्रपणे हलविले जाऊ शकतात</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नवीन विभाजन करा Ctrl + Alt + I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">वर्तमान गीतपट्टामधील वर्तमान निवडीवर विभाजन कट करते, नंतर एक नवीन गीतपट्टा तयार करते आणि नवीन गीतपट्टामध्ये निवड पेस्ट करते. </t>
+  </si>
+  <si>
+    <t>Ctrl + J एकत्र करा</t>
+  </si>
+  <si>
+    <t>आपण एक किंवा अधिक फित आच्छादित क्षेत्र निवडल्यास, ते सर्व एका मोठ्या फितीमध्ये सामील झाले आहेत.</t>
+  </si>
+  <si>
+    <t>दरम्यानचे क्षेत्र फित शांत होतात.</t>
+  </si>
+  <si>
+    <t>मूक येथे विलग Ctrl + Alt + J</t>
+  </si>
+  <si>
+    <t>परिपूर्ण शांतता आणि अन्य ध्वनी समाविष्ट असलेल्या निवड प्रदेशात, शांततेच्या प्रदेशांदरम्यान वैयक्तिक मूक-फित तयार करते. निवड मधील शांतता फित दरम्यान रिक्त जागा होते.</t>
+  </si>
+  <si>
+    <t>जर निवड संपूर्णपणे शांत असेल तर ते निवडीच्या दोन्ही बाजूंच्या ध्वनी दरम्यान रिक्त स्थान होते.</t>
   </si>
 </sst>
 </file>
@@ -499,9 +499,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -519,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -717,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -728,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -739,7 +745,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -750,10 +756,11 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>